--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Alimentacao infantil.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Alimentacao infantil.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amido De Milho Maizena 200g</t>
+          <t>Neston 3 Cereais 600g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75640062-260f-4a59-a225-b743c3159355.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/465d1190-7673-47e8-94ed-cb2c36dd0a87.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7891000288474</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Amido De Milho Wally 500g</t>
+          <t>Macarrão Infantil Papapá 200g Vegetais</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad64768c-d664-4053-a400-d8304f1762a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f60fb62b-7a0e-40e2-8db4-341178b2f2f1.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7898969895286</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Amido De Milho Maizena 500g</t>
+          <t>Papinha Papapá Caseira 180g Arroz Feijão E Carne Com Legumes</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d069b182-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6b30f75-99a8-4f3f-8c48-b4fa3430514b.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898969895255</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Amido De Milho Wally 200g</t>
+          <t>Cereal Infantil Papapá 170g Aveia Morango E Beterraba</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ced0983-bb2f-49d7-85c2-fb25fb509f05.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c39516d4-35bc-47c3-a308-68ddc33bf73c.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898969895330</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mucilon Nestle 360g Multicereais</t>
+          <t>Biscoito Infantil Papapá 60g Maçã E Canela</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8232ea13-4a07-499a-982f-e418eb81b45b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f7647ce-cda4-45ff-bca2-95521191b80f.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898969895354</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Neston 3 Cereais 210g</t>
+          <t>Biscoito Infantil Papapá 60g Banana E Cacau</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f11263de-d59c-4b40-9725-f1fe52a02f46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48a0d5c6-fd5b-4e4b-a086-07a45aaad6da.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7898969895361</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sustagen Kids 350g Chocolate</t>
+          <t>Cremogema Maizena 180g Chocolate</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38bbb00d-537b-48b8-a518-c71dcd37b2dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cab43304-5faa-4c7d-9819-7cda9b631817.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891150068278</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mucilon Nestle Sache 360g Arroz E Aveia</t>
+          <t>Cremogema Maizena 180g Tradicional</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/520b51de-3ffd-483b-b812-14d600193586.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f53d3a2e-40d1-4a27-9f7a-d5b6ac21fe4c.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891150068308</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cremogema Maizena 180g Tradicional</t>
+          <t>Leite Em Po Ninho Instantaneo 575g Integral</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f53d3a2e-40d1-4a27-9f7a-d5b6ac21fe4c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5aac439-ff9b-4fa6-b9ae-fb5e6709e55a.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891000395943</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Leite Em Po Ninho Sache 575g Integral</t>
+          <t>Amido De Milho Maizena 200g</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c45b213-92f9-417a-a686-c37e44db6c18.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75640062-260f-4a59-a225-b743c3159355.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891150066106</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Leite Em Po Ninho Instantaneo 575g Integral</t>
+          <t>Amido De Milho Maizena 500g</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5aac439-ff9b-4fa6-b9ae-fb5e6709e55a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d069b182-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891150066106</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Neston 3 Cereais 600g</t>
+          <t>Amido De Milho Wally 500g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/465d1190-7673-47e8-94ed-cb2c36dd0a87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad64768c-d664-4053-a400-d8304f1762a9.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896237504830</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Biscoito Infantil Papapá 60g Maçã E Canela</t>
+          <t>Leite Em Po Ninho Sache 575g Integral</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f7647ce-cda4-45ff-bca2-95521191b80f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c45b213-92f9-417a-a686-c37e44db6c18.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891000395943</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Biscoito Infantil Papapá 60g Banana E Cacau</t>
+          <t>Neston 3 Cereais 210g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/48a0d5c6-fd5b-4e4b-a086-07a45aaad6da.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f11263de-d59c-4b40-9725-f1fe52a02f46.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891000288474</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mucilon Nestle Sachê 180g Multicereais</t>
+          <t>Amido De Milho Wally 200g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0125ff5c-3166-49d9-8f52-d1e3e32cd5ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9ced0983-bb2f-49d7-85c2-fb25fb509f05.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896237504830</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cremogema Maizena 180g Chocolate</t>
+          <t>Mucilon Nestle Sache 360g Arroz E Aveia</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cab43304-5faa-4c7d-9819-7cda9b631817.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/520b51de-3ffd-483b-b812-14d600193586.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891000357170</t>
         </is>
       </c>
     </row>
@@ -906,6 +991,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1688416d-dc0c-48d5-a43d-88c0e12b2581.jpg</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891000086131</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mucilon Nestle 360g Milho</t>
+          <t>Sustagen Kids 350g Chocolate</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37f8c6dd-9865-4e82-a65e-1a9d6dcb6b95.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38bbb00d-537b-48b8-a518-c71dcd37b2dd.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7898941911164</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Macarrão Infantil Papapá 200g Vegetais</t>
+          <t>Sustagen Kids 380g Morango</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 31,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f60fb62b-7a0e-40e2-8db4-341178b2f2f1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/795f1ce4-2b54-4aa4-8baa-452b78fc7039.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7898941911171</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mucilon Nestle Sachê 180g Arroz E Aveia</t>
+          <t>Sustagen Kids Sachê 190g Baunilha</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1bd9e7ab-da27-4fcf-abf5-8da8b0123387.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5ef96b3-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898941911270</t>
         </is>
       </c>
     </row>
@@ -1014,6 +1119,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ad24a5cf-ed4a-48f3-9194-ec985d70d3f8.jpg</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891000319543</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cereal Infantil Papapá 170g Aveia Morango E Beterraba</t>
+          <t>Mucilon Nestle Sachê 180g Multicereais</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c39516d4-35bc-47c3-a308-68ddc33bf73c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0125ff5c-3166-49d9-8f52-d1e3e32cd5ea.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891000319505</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sustagen Kids Sachê 190g Baunilha</t>
+          <t>Mucilon Nestle 360g Multicereais</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5ef96b3-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8232ea13-4a07-499a-982f-e418eb81b45b.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891000319505</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1202,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mucilon Nestle 180g Arroz</t>
+          <t>Mucilon Nestle Sachê 180g Arroz E Aveia</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1092,7 +1212,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01f5b81e-e2ce-4fd2-b4e2-c34c1197a3cb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1bd9e7ab-da27-4fcf-abf5-8da8b0123387.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891000319543</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,54 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Papinha Papapá Caseira 180g Arroz Feijão E Carne Com Legumes</t>
+          <t>Mucilon Nestle 180g Arroz</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6b30f75-99a8-4f3f-8c48-b4fa3430514b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01f5b81e-e2ce-4fd2-b4e2-c34c1197a3cb.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891000319628</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mercearia Doce</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Alimentacao infantil</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mucilon Nestle 360g Milho</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>R$ 14,99</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37f8c6dd-9865-4e82-a65e-1a9d6dcb6b95.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891000357170</t>
         </is>
       </c>
     </row>
